--- a/data/trans_orig/P29_R2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P29_R2_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>154455</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>134811</v>
+        <v>133941</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>176568</v>
+        <v>176450</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2242130116365164</v>
+        <v>0.2242130116365163</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1956970153017524</v>
+        <v>0.1944349784897701</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2563141979395804</v>
+        <v>0.2561423428432488</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>47</v>
@@ -762,19 +762,19 @@
         <v>27044</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19980</v>
+        <v>19709</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35799</v>
+        <v>35732</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03692295794053456</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02727954386966121</v>
+        <v>0.02690858864277115</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0488767442268962</v>
+        <v>0.04878566254145961</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>231</v>
@@ -783,19 +783,19 @@
         <v>181498</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>158387</v>
+        <v>159189</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>207160</v>
+        <v>203215</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1276979761218596</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1114373698328788</v>
+        <v>0.1120018433782242</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1457527849945336</v>
+        <v>0.1429772650087618</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>534419</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>512306</v>
+        <v>512424</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>554063</v>
+        <v>554933</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7757869883634836</v>
+        <v>0.7757869883634835</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7436858020604197</v>
+        <v>0.7438576571567515</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8043029846982478</v>
+        <v>0.8055650215102299</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1191</v>
@@ -833,19 +833,19 @@
         <v>705390</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>696635</v>
+        <v>696702</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>712454</v>
+        <v>712725</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9630770420594654</v>
+        <v>0.9630770420594655</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9511232557731039</v>
+        <v>0.9512143374585403</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9727204561303391</v>
+        <v>0.973091411357229</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1735</v>
@@ -854,19 +854,19 @@
         <v>1239811</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1214149</v>
+        <v>1218094</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1262922</v>
+        <v>1262120</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8723020238781404</v>
+        <v>0.8723020238781402</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8542472150054664</v>
+        <v>0.8570227349912384</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8885626301671212</v>
+        <v>0.8879981566217759</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>178303</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>154612</v>
+        <v>156323</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>204254</v>
+        <v>205482</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1701800461556073</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1475685318471572</v>
+        <v>0.1492013473578767</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1949483135883087</v>
+        <v>0.1961204799253463</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>44</v>
@@ -979,19 +979,19 @@
         <v>30644</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22976</v>
+        <v>22649</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>40496</v>
+        <v>42515</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02866057582332682</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02148880942831325</v>
+        <v>0.02118247539261838</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03787432776187559</v>
+        <v>0.03976245697685152</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>234</v>
@@ -1000,19 +1000,19 @@
         <v>208948</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>182275</v>
+        <v>183730</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>238121</v>
+        <v>237739</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.09870234108744366</v>
+        <v>0.09870234108744372</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08610281282394312</v>
+        <v>0.0867900116676923</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.112483290398692</v>
+        <v>0.1123026303014071</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>869430</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>843479</v>
+        <v>842251</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>893121</v>
+        <v>891410</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8298199538443927</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8050516864116913</v>
+        <v>0.8038795200746536</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8524314681528428</v>
+        <v>0.8507986526421232</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1470</v>
@@ -1050,19 +1050,19 @@
         <v>1038569</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1028717</v>
+        <v>1026698</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1046237</v>
+        <v>1046564</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9713394241766732</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9621256722381243</v>
+        <v>0.9602375430231486</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9785111905716867</v>
+        <v>0.9788175246073817</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2243</v>
@@ -1071,19 +1071,19 @@
         <v>1907998</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1878825</v>
+        <v>1879207</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1934671</v>
+        <v>1933216</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9012976589125562</v>
+        <v>0.9012976589125564</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8875167096013071</v>
+        <v>0.8876973696985927</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9138971871760569</v>
+        <v>0.9132099883323074</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>84704</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>69016</v>
+        <v>67464</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>105447</v>
+        <v>103843</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1059280219819507</v>
+        <v>0.1059280219819506</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0863091263492364</v>
+        <v>0.08436795548639578</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1318687278822616</v>
+        <v>0.1298628514610708</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -1196,19 +1196,19 @@
         <v>23061</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15941</v>
+        <v>16563</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32218</v>
+        <v>32068</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.02848334129193161</v>
+        <v>0.0284833412919316</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01968931594169546</v>
+        <v>0.02045741550492059</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03979339241114001</v>
+        <v>0.03960751219713304</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>118</v>
@@ -1217,19 +1217,19 @@
         <v>107765</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>89163</v>
+        <v>90834</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>130059</v>
+        <v>130101</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0669650418722115</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05540572049729078</v>
+        <v>0.0564440680011802</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08081868552104686</v>
+        <v>0.08084448649874375</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>714933</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>694190</v>
+        <v>695794</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>730621</v>
+        <v>732173</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8940719780180494</v>
+        <v>0.8940719780180493</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8681312721177386</v>
+        <v>0.8701371485389294</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9136908736507638</v>
+        <v>0.9156320445136044</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1012</v>
@@ -1267,19 +1267,19 @@
         <v>786577</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>777420</v>
+        <v>777570</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>793697</v>
+        <v>793075</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9715166587080685</v>
+        <v>0.9715166587080682</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9602066075888597</v>
+        <v>0.9603924878028671</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9803106840583046</v>
+        <v>0.9795425844950794</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1599</v>
@@ -1288,19 +1288,19 @@
         <v>1501510</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1479216</v>
+        <v>1479174</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1520112</v>
+        <v>1518441</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9330349581277886</v>
+        <v>0.9330349581277885</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9191813144789531</v>
+        <v>0.9191555135012569</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9445942795027094</v>
+        <v>0.9435559319988199</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>157438</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>135380</v>
+        <v>135314</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>180300</v>
+        <v>181180</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1591947789695904</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1368909827121292</v>
+        <v>0.1368238881372992</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1823118640339156</v>
+        <v>0.1832015496629991</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>60</v>
@@ -1413,19 +1413,19 @@
         <v>38763</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>29362</v>
+        <v>29610</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>52693</v>
+        <v>51824</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.03474627588023063</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02631990270870863</v>
+        <v>0.02654217642176509</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04723299692808699</v>
+        <v>0.04645451210957296</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>255</v>
@@ -1434,19 +1434,19 @@
         <v>196201</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>173331</v>
+        <v>171053</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>221298</v>
+        <v>222217</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.09322656047532571</v>
+        <v>0.09322656047532568</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08235985000304451</v>
+        <v>0.08127742216320738</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1051519058940045</v>
+        <v>0.1055885053517203</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>831527</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>808665</v>
+        <v>807785</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>853585</v>
+        <v>853651</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8408052210304097</v>
+        <v>0.8408052210304096</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8176881359660847</v>
+        <v>0.8167984503370009</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8631090172878711</v>
+        <v>0.863176111862701</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1497</v>
@@ -1484,19 +1484,19 @@
         <v>1076831</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1062901</v>
+        <v>1063770</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1086232</v>
+        <v>1085984</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9652537241197695</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9527670030719141</v>
+        <v>0.953545487890427</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9736800972912916</v>
+        <v>0.9734578235782351</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2307</v>
@@ -1505,19 +1505,19 @@
         <v>1908358</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1883261</v>
+        <v>1882342</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1931228</v>
+        <v>1933506</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9067734395246746</v>
+        <v>0.9067734395246744</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8948480941059955</v>
+        <v>0.8944114946482795</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9176401499969553</v>
+        <v>0.9187225778367926</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>574900</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>528657</v>
+        <v>535099</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>617735</v>
+        <v>619834</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1630824753013031</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1499647344990363</v>
+        <v>0.1517920886448285</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.175233472421133</v>
+        <v>0.1758289925390184</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>183</v>
@@ -1630,19 +1630,19 @@
         <v>119512</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>102764</v>
+        <v>103359</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>138893</v>
+        <v>139966</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03206753535486157</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0275737690103387</v>
+        <v>0.02773340642727296</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03726779689148163</v>
+        <v>0.03755592366352876</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>838</v>
@@ -1651,19 +1651,19 @@
         <v>694412</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>650081</v>
+        <v>646837</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>738451</v>
+        <v>746994</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.09575334199999641</v>
+        <v>0.0957533419999964</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08964058213669704</v>
+        <v>0.08919326331497511</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1018259326698012</v>
+        <v>0.1030039939129263</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>2950309</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2907474</v>
+        <v>2905375</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2996552</v>
+        <v>2990110</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8369175246986968</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.824766527578867</v>
+        <v>0.8241710074609813</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8500352655009636</v>
+        <v>0.8482079113551714</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5170</v>
@@ -1701,19 +1701,19 @@
         <v>3607367</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3587986</v>
+        <v>3586913</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3624115</v>
+        <v>3623520</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9679324646451385</v>
+        <v>0.9679324646451386</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9627322031085183</v>
+        <v>0.9624440763364714</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9724262309896613</v>
+        <v>0.9722665935727275</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7884</v>
@@ -1722,19 +1722,19 @@
         <v>6557676</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6513637</v>
+        <v>6505094</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6602007</v>
+        <v>6605251</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9042466580000035</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8981740673301988</v>
+        <v>0.8969960060870737</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.910359417863303</v>
+        <v>0.910806736685025</v>
       </c>
     </row>
     <row r="18">
